--- a/biology/Botanique/Angophora_hispida/Angophora_hispida.xlsx
+++ b/biology/Botanique/Angophora_hispida/Angophora_hispida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angophora hispida, nom commun  - Dwarf apple (pommier nain), est une espèce du genre Angophora, famille des Myrtaceae. 
-Angophora hispida se développe en mallee, ou en arbre, jusqu'à environ 7 m (25 ft) de hauteur[3]. La petite taille de A. hispida, surtout par rapport à ses parents Angophora et Eucalyptus, lui donne le surnom de pommier nain[3]. Il est originaire d'une partie relativement petite du centre de la Nouvelle-Galles du Sud, du sud de Sydney à la région de Gosford. Les feuilles de la plante sont sessiles (sans tige) et serrent la tige avec des bases en forme de cœur. Son ancien nom - A. cordifolia Cav. - faisait référence à ces feuilles cordées. Une autre caractéristique distinctive sont les poils rouges qui recouvrent les rameaux, les bases des fleurs et les nouvelles pousses. Cela conduit à l'épithète spécifique hispida (qui signifie "hérissée").
+Angophora hispida se développe en mallee, ou en arbre, jusqu'à environ 7 m (25 ft) de hauteur. La petite taille de A. hispida, surtout par rapport à ses parents Angophora et Eucalyptus, lui donne le surnom de pommier nain. Il est originaire d'une partie relativement petite du centre de la Nouvelle-Galles du Sud, du sud de Sydney à la région de Gosford. Les feuilles de la plante sont sessiles (sans tige) et serrent la tige avec des bases en forme de cœur. Son ancien nom - A. cordifolia Cav. - faisait référence à ces feuilles cordées. Une autre caractéristique distinctive sont les poils rouges qui recouvrent les rameaux, les bases des fleurs et les nouvelles pousses. Cela conduit à l'épithète spécifique hispida (qui signifie "hérissée").
 </t>
         </is>
       </c>
